--- a/WIP/Documents/Test/System Test/UJD_VN_NonFuncionalRequirement Test case.xlsx
+++ b/WIP/Documents/Test/System Test/UJD_VN_NonFuncionalRequirement Test case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\System Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User_Interface" sheetId="2" r:id="rId1"/>
@@ -18,17 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">User_Interface!$A$9:$H$9</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Admin module</t>
   </si>
   <si>
     <t>ノート</t>
@@ -132,114 +134,18 @@
 </t>
   </si>
   <si>
-    <t>Click "Quên thông tin" link</t>
-  </si>
-  <si>
-    <t>From Homepage</t>
-  </si>
-  <si>
-    <t>Click  "Đăng kí" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header show nothing </t>
-  </si>
-  <si>
     <t>User module</t>
   </si>
   <si>
-    <t>From Edit profile page</t>
-  </si>
-  <si>
-    <t>Input correct information and click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Click "Liên hệ &amp; đóng góp"-&gt;"Q&amp;A" link</t>
-  </si>
-  <si>
-    <t>Click "Ôn tập" link</t>
-  </si>
-  <si>
-    <t>From Test page</t>
-  </si>
-  <si>
-    <t>Click "Hoàn thành" button</t>
-  </si>
-  <si>
-    <t>Click "Search" button</t>
-  </si>
-  <si>
-    <t>From Review page</t>
-  </si>
-  <si>
-    <t>Click Homepage link</t>
-  </si>
-  <si>
-    <t>Click "Introduction" link</t>
-  </si>
-  <si>
-    <t>From Admin page</t>
-  </si>
-  <si>
-    <t>Click "Vocabulary management" link</t>
-  </si>
-  <si>
-    <t>Click "Grammar management" link</t>
-  </si>
-  <si>
-    <t>Click "Video management" link</t>
-  </si>
-  <si>
-    <t>Click "Test management" link</t>
-  </si>
-  <si>
-    <t>Click "Kanji management" link</t>
-  </si>
-  <si>
-    <t>From Vocabulary management page</t>
-  </si>
-  <si>
-    <t>Click "Add" button</t>
-  </si>
-  <si>
-    <t>Click "Delete" link</t>
-  </si>
-  <si>
-    <t>From Contact management page</t>
-  </si>
-  <si>
-    <t>Click "Reply" link</t>
-  </si>
-  <si>
-    <t>From Grammar management page</t>
-  </si>
-  <si>
     <t>Check respone time from Homepage move to Register page &lt; 5 seconds</t>
   </si>
   <si>
-    <t>Check respone time from Homepage move to Forget password page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time update new profile and move to User profile page &lt; 5 seconds</t>
-  </si>
-  <si>
     <t>Check respone time from Homepage move to Q&amp;A page &lt; 5 seconds</t>
   </si>
   <si>
     <t>Check respone time from Homepage move to review page &lt; 5 seconds</t>
   </si>
   <si>
-    <t>Check respone time from Test page move to result of test page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Homepage display result of search &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Review page move to Homepage &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Homepage move to introduction page &lt; 5 seconds</t>
-  </si>
-  <si>
     <t>Check respone time from Admin page move to Vocabulary management page &lt; 5 seconds</t>
   </si>
   <si>
@@ -253,27 +159,6 @@
   </si>
   <si>
     <t>Check respone time from Admin page move to Kanji management page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Contact management page move to reply page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Vocabulary management page move to Add vocabulary page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Vocabulary management page display result of search &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Vocabulary management page delete that vocabulary &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Grammar management page display result of search &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Grammar management page move to Add grammar page &lt; 5 seconds</t>
-  </si>
-  <si>
-    <t>Check respone time from Grammar management page delete that grammar &lt; 5 seconds</t>
   </si>
   <si>
     <t>Test user interface</t>
@@ -397,12 +282,84 @@
   <si>
     <t>Bug will be fix in 1 day or less</t>
   </si>
+  <si>
+    <t>Header show Website'name, Login area</t>
+  </si>
+  <si>
+    <t>1. Enter Hompage
+2. Click  "Quân mật khẩu" link</t>
+  </si>
+  <si>
+    <t>1. Enter Hompage
+2. Click  "Đăng kí" link</t>
+  </si>
+  <si>
+    <t>Check respone time from Homepage move to Forgot password page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Enter Homepage
+2. Click "Liên hệ &amp; đóng góp\ Q&amp;A" tab</t>
+  </si>
+  <si>
+    <t>Respone time from Homepage to Q&amp;A page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Enter Homepage
+2. Click "Ôn tập" link</t>
+  </si>
+  <si>
+    <t>Respone time from Homepage to"Ôn tập" page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>Respone time from Homepage to "Quên mật khẩu" page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>Respone time from Homepage to "Đăng ký" page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Login with Superadmin role
+2. Click "Vocabulary management" link</t>
+  </si>
+  <si>
+    <t>Respone time from Admin page to Vocabulary management page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Login with Superadmin role
+2. Click "Grammar management" link</t>
+  </si>
+  <si>
+    <t>Respone time from Admin page to Grammar management page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Login with Superadmin role
+2. Click "Video management" link</t>
+  </si>
+  <si>
+    <t>Respone time from Admin page to Video management page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Login with Superadmin role
+2. Click "Test management" link</t>
+  </si>
+  <si>
+    <t>Respone time from Admin page to Test management page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Login with Superadmin role
+2. Click "Kanji management" link</t>
+  </si>
+  <si>
+    <t>Respone time from Admin page to Kanji management page &lt; 5 seconds</t>
+  </si>
+  <si>
+    <t>Admin Mpdule</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -503,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -604,21 +561,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -813,21 +755,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -841,7 +768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -868,17 +795,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -886,7 +807,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,22 +819,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -926,69 +847,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -997,6 +915,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,6 +934,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1058,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,7 +1020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1305,13 +1232,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="1" customWidth="1"/>
@@ -1324,344 +1251,344 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="22">
         <f>COUNTIF(E9:E66,"Pass")</f>
         <v>7</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <f>COUNTIF(E9:E766,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>COUNTIF(F$13:F$766,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <f>COUNTA(A10:A893 )</f>
         <v>7</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="7" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN--1]</v>
+        <v>[User Interface--1]</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="40.5" customHeight="1">
       <c r="A11" s="7" t="str">
         <f t="shared" ref="A11:A16" si="0">IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-]</v>
+        <v>[User Interface-]</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="31.5" customHeight="1">
       <c r="A12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-1]</v>
+        <v>[User Interface-1]</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="29.25" customHeight="1">
       <c r="A13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-2]</v>
+        <v>[User Interface-2]</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="29.25" customHeight="1">
       <c r="A14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-3]</v>
+        <v>[User Interface-3]</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="29.25" customHeight="1">
       <c r="A15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-4]</v>
+        <v>[User Interface-4]</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="39.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-5]</v>
+        <v>[User Interface-5]</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="44.25" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -1669,10 +1596,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="44.25" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -1706,14 +1633,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
@@ -1728,679 +1655,405 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <f>COUNTIF(E11:E830,"Pass")</f>
-        <v>21</v>
-      </c>
-      <c r="B7" s="23">
-        <f>COUNTIF(E11:E830,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="22">
+        <f>COUNTIF(E11:E818,"Pass")</f>
+        <v>9</v>
+      </c>
+      <c r="B7" s="21">
+        <f>COUNTIF(E11:E818,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22">
-        <f>COUNTIF(F$11:F$703,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="47">
-        <v>21</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
+      <c r="D7" s="20">
+        <f>COUNTIF(F$11:F$691,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="46">
+        <f>COUNTA(A11:A40)</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="65.25" customHeight="1">
       <c r="A11" s="7" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-]</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>[Performance-]</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="72" customHeight="1">
       <c r="A12" s="7" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-1]</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>[Performance-1]</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="G12" s="38"/>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="64.5" customHeight="1">
       <c r="A13" s="7" t="str">
-        <f t="shared" ref="A13:A19" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-2]</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>63</v>
+        <f t="shared" ref="A13:A14" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Performance-2]</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="73.5" customHeight="1">
       <c r="A14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-3]</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>64</v>
+        <v>[Performance-3]</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>[UJD_VN-4]</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" ht="72" customHeight="1">
       <c r="A16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>[UJD_VN-5]</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>66</v>
+        <f t="shared" ref="A16:A20" si="1">IF(OR(B16&lt;&gt;"",D16&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Performance-5]</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="72.75" customHeight="1">
       <c r="A17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>[UJD_VN-6]</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>[Performance-6]</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="63.75" customHeight="1">
       <c r="A18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>[UJD_VN-7]</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>[Performance-7]</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" ht="63" customHeight="1">
       <c r="A19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>[UJD_VN-8]</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>[Performance-8]</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="str">
-        <f t="shared" ref="A21:A28" si="1">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-10]</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+        <v>72</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>[UJD_VN-11]</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-12]</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>[Performance-9]</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-13]</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-14]</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-15]</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-16]</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>[UJD_VN-17]</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="str">
-        <f t="shared" ref="A29:A32" si="2">IF(OR(B29&lt;&gt;"",D29&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-18]</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>[UJD_VN-19]</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>[UJD_VN-20]</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>[UJD_VN-21]</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="15"/>
+      <c r="G20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A20:G20"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -2408,7 +2061,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E11:E19 E21:E32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E16:E20 E11:E14">
       <formula1>$J$3:$J$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2426,11 +2079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
@@ -2441,215 +2094,215 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="22">
         <f>COUNTIF(E11:E811,"Pass")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <f>COUNTIF(E11:E811,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>COUNTIF(F$11:F$684,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>3</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="135.75" customHeight="1">
       <c r="A11" s="7" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-]</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>101</v>
+        <v>[Usability-]</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="77.25" customHeight="1">
       <c r="A12" s="7" t="str">
         <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN-1]</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>104</v>
+        <v>[Usability-1]</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="105" customHeight="1">
       <c r="A13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-2]</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>106</v>
+        <v>[Usability-2]</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -2677,11 +2330,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -2692,347 +2345,348 @@
     <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="22">
         <f>COUNTIF(E11:E813,"Pass")</f>
         <v>9</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <f>COUNTIF(E11:E813,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>COUNTIF(F$11:F$686,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
+        <f>COUNTA(A11:A40)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" customHeight="1">
       <c r="A11" s="7" t="str">
         <f t="shared" ref="A11:A16" si="0">IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[UJD_VN-]</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>88</v>
+      <c r="B11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="35.25" customHeight="1">
       <c r="A12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>[UJD_VN-1]</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>88</v>
+      <c r="B12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="30" customHeight="1">
       <c r="A13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>[UJD_VN-2]</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>88</v>
+      <c r="B13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>[UJD_VN-3]</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>88</v>
+      <c r="B14" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>[UJD_VN-4]</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>88</v>
+      <c r="B15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="45.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>[UJD_VN-5]</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>98</v>
+      <c r="B16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="38.25">
       <c r="A17" s="7" t="str">
         <f t="shared" ref="A17:A19" si="1">IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[UJD_VN-6]</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>98</v>
+      <c r="B17" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[UJD_VN-7]</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>98</v>
+      <c r="B18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="38.25">
       <c r="A19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>[UJD_VN-8]</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>98</v>
+      <c r="B19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -3061,10 +2715,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
@@ -3074,256 +2728,256 @@
     <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="D6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="22">
         <f>COUNTIF(E10:E812,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <f>COUNTIF(E10:E812,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <f>E7-D7-B7-A7</f>
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>COUNTIF(F$10:F$685,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>2</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" customHeight="1">
       <c r="A10" s="7" t="str">
         <f t="shared" ref="A10:A11" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$3,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[UJD_VN--1]</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>113</v>
+        <v>[Reliability--1]</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51">
       <c r="A11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[UJD_VN-]</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>117</v>
+        <v>[Reliability-]</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F4 F8 E10:E18">
